--- a/biology/Médecine/Hôpital_Henri_Serruys/Hôpital_Henri_Serruys.xlsx
+++ b/biology/Médecine/Hôpital_Henri_Serruys/Hôpital_Henri_Serruys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Henri_Serruys</t>
+          <t>Hôpital_Henri_Serruys</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hôpital Henri Serruys est un hôpital du CPAS de la ville belge d'Ostende. À l'origine, l'hôpital appartenait aux Sœurs noires et s'appelait alors Sint-Janshospitaal. En 1829, il devient un hôpital civil, nommé ultérieurement en hommage au bourgmestre libéral Henri Serruys (1888-1952), dont un legs permet le développement de l'hôpital.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Henri_Serruys</t>
+          <t>Hôpital_Henri_Serruys</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Fusions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2007 et 2008, une brève fusion a lieu entre les hôpitaux d'Ostende, car l'hôpital Henri Serruys avait entamé des discussions avec l'AZ Damiaan, elle-même créée en 1999 à la suite de la fusion de l'hôpital général Heilig Hart et de l'hôpital général Sint-Jozef. En raison de l'absence d'accord sur le nombre de lits et de craintes liées à de potentielles tensions sociales, les pourparlers ont cessé.
 Par la suite, l'hôpital Henri Serruys a entamé des négociations avec l'AZ Sint-Jan à Bruges, qui ont abouti à une fusion, effective le 1er janvier 2009, sous le nom « AZ Sint-Jan Brugge-Oostende AV ». L'hôpital Henri Serruys, qui est maintenant un campus du nouveau regroupement hospitalier, a été conservé.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Henri_Serruys</t>
+          <t>Hôpital_Henri_Serruys</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://web.archive.org/web/20090223045120/http://www.henriserruysav.be/</t>
         </is>
